--- a/src/output_files/Бозшаколь - Ахангаран.xlsx
+++ b/src/output_files/Бозшаколь - Ахангаран.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N370"/>
+  <dimension ref="A1:O370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>Груз</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -548,6 +553,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -596,6 +606,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -644,6 +659,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -692,6 +712,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -740,6 +765,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -788,6 +818,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -836,6 +871,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -884,6 +924,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -932,6 +977,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -980,6 +1030,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1028,6 +1083,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1076,6 +1136,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1124,6 +1189,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1172,6 +1242,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1220,6 +1295,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1268,6 +1348,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1316,6 +1401,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1364,6 +1454,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1412,6 +1507,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1460,6 +1560,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1508,6 +1613,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1556,6 +1666,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1604,6 +1719,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1652,6 +1772,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1700,6 +1825,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1748,6 +1878,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1796,6 +1931,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1844,6 +1984,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1892,6 +2037,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1940,6 +2090,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1988,6 +2143,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2036,6 +2196,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2084,6 +2249,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2132,6 +2302,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2180,6 +2355,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2228,6 +2408,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2276,6 +2461,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2324,6 +2514,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2372,6 +2567,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2420,6 +2620,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2468,6 +2673,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2516,6 +2726,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2564,6 +2779,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2612,6 +2832,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2660,6 +2885,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2708,6 +2938,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2756,6 +2991,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2804,6 +3044,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2852,6 +3097,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2900,6 +3150,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2948,6 +3203,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2996,6 +3256,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3044,6 +3309,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3092,6 +3362,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3140,6 +3415,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3188,6 +3468,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3236,6 +3521,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3284,6 +3574,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3332,6 +3627,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3380,6 +3680,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3428,6 +3733,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3476,6 +3786,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3524,6 +3839,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3572,6 +3892,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3620,6 +3945,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3668,6 +3998,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3716,6 +4051,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3764,6 +4104,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3812,6 +4157,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3860,6 +4210,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3908,6 +4263,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3956,6 +4316,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4004,6 +4369,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4052,6 +4422,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4100,6 +4475,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4148,6 +4528,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4196,6 +4581,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4244,6 +4634,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4292,6 +4687,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4340,6 +4740,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4388,6 +4793,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4436,6 +4846,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4484,6 +4899,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4532,6 +4952,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4580,6 +5005,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4628,6 +5058,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4676,6 +5111,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4724,6 +5164,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4772,6 +5217,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4820,6 +5270,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4868,6 +5323,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4916,6 +5376,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4964,6 +5429,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5012,6 +5482,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5060,6 +5535,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5108,6 +5588,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5156,6 +5641,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5204,6 +5694,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5252,6 +5747,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5300,6 +5800,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5348,6 +5853,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5396,6 +5906,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5444,6 +5959,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5492,6 +6012,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5540,6 +6065,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5588,6 +6118,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5636,6 +6171,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5684,6 +6224,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5732,6 +6277,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5780,6 +6330,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5828,6 +6383,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5876,6 +6436,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5924,6 +6489,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5972,6 +6542,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6020,6 +6595,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6068,6 +6648,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6116,6 +6701,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6164,6 +6754,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6212,6 +6807,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6260,6 +6860,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6308,6 +6913,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6356,6 +6966,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6404,6 +7019,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6452,6 +7072,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6500,6 +7125,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6548,6 +7178,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6596,6 +7231,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6644,6 +7284,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6692,6 +7337,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6740,6 +7390,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6788,6 +7443,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6836,6 +7496,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6884,6 +7549,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6932,6 +7602,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6980,6 +7655,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7028,6 +7708,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7076,6 +7761,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7124,6 +7814,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7172,6 +7867,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7220,6 +7920,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7268,6 +7973,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7316,6 +8026,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7364,6 +8079,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7412,6 +8132,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7460,6 +8185,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7508,6 +8238,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7556,6 +8291,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7604,6 +8344,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7652,6 +8397,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7700,6 +8450,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7748,6 +8503,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7796,6 +8556,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7844,6 +8609,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7892,6 +8662,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7940,6 +8715,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7988,6 +8768,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8036,6 +8821,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8084,6 +8874,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8132,6 +8927,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8180,6 +8980,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8228,6 +9033,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8276,6 +9086,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8324,6 +9139,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8372,6 +9192,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8420,6 +9245,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8468,6 +9298,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8516,6 +9351,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8564,6 +9404,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8612,6 +9457,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8660,6 +9510,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8708,6 +9563,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8756,6 +9616,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8804,6 +9669,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8852,6 +9722,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8900,6 +9775,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8948,6 +9828,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8996,6 +9881,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9044,6 +9934,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9092,6 +9987,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9140,6 +10040,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9188,6 +10093,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9236,6 +10146,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9284,6 +10199,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9332,6 +10252,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9380,6 +10305,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9428,6 +10358,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9476,6 +10411,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9524,6 +10464,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9572,6 +10517,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9620,6 +10570,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9668,6 +10623,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9716,6 +10676,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9764,6 +10729,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9812,6 +10782,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9860,6 +10835,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9908,6 +10888,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -9956,6 +10941,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10004,6 +10994,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10052,6 +11047,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10100,6 +11100,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10148,6 +11153,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10196,6 +11206,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10244,6 +11259,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10292,6 +11312,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10340,6 +11365,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10388,6 +11418,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10436,6 +11471,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10484,6 +11524,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10532,6 +11577,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10580,6 +11630,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10608,12 +11663,12 @@
         <v>69.652415</v>
       </c>
       <c r="H212" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Бозшаколь - Ахангаран: 14, , 0 дн.;</t>
+          <t>Бозшаколь - Ахангаран: 2, , 0 дн.;</t>
         </is>
       </c>
       <c r="K212" t="n">
@@ -10630,6 +11685,11 @@
       <c r="N212" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -10680,6 +11740,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10728,6 +11793,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10776,6 +11846,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -10824,6 +11899,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -10872,6 +11952,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10920,6 +12005,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -10968,6 +12058,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11016,6 +12111,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11064,6 +12164,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11112,6 +12217,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11160,6 +12270,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11208,6 +12323,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11256,6 +12376,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11304,6 +12429,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -11352,6 +12482,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11400,6 +12535,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11448,6 +12588,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11496,6 +12641,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11544,6 +12694,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -11592,6 +12747,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -11640,6 +12800,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -11688,6 +12853,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11736,6 +12906,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -11784,6 +12959,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -11832,6 +13012,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11880,6 +13065,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -11928,6 +13118,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -11976,6 +13171,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12024,6 +13224,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -12072,6 +13277,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -12120,6 +13330,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -12168,6 +13383,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -12216,6 +13436,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -12264,6 +13489,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -12312,6 +13542,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -12360,6 +13595,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -12408,6 +13648,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -12456,6 +13701,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12504,6 +13754,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -12552,6 +13807,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -12600,6 +13860,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -12648,6 +13913,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -12696,6 +13966,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -12744,6 +14019,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -12792,6 +14072,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -12840,6 +14125,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -12888,6 +14178,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -12936,6 +14231,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -12984,6 +14284,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -13032,6 +14337,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -13080,6 +14390,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -13128,6 +14443,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -13176,6 +14496,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -13224,6 +14549,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -13272,6 +14602,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -13320,6 +14655,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -13368,6 +14708,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -13416,6 +14761,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -13464,6 +14814,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -13512,6 +14867,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -13560,6 +14920,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -13608,6 +14973,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -13656,6 +15026,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -13704,6 +15079,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -13752,6 +15132,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -13800,6 +15185,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -13848,6 +15238,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -13896,6 +15291,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -13944,6 +15344,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -13992,6 +15397,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -14040,6 +15450,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -14088,6 +15503,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -14136,6 +15556,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -14184,6 +15609,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -14232,6 +15662,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -14280,6 +15715,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -14328,6 +15768,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -14376,6 +15821,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -14424,6 +15874,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -14472,6 +15927,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -14520,6 +15980,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -14568,6 +16033,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -14616,6 +16086,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -14664,6 +16139,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -14712,6 +16192,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -14760,6 +16245,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -14808,6 +16298,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -14856,6 +16351,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -14904,6 +16404,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -14952,6 +16457,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -15000,6 +16510,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -15048,6 +16563,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -15096,6 +16616,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -15144,6 +16669,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -15192,6 +16722,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -15240,6 +16775,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -15288,6 +16828,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -15336,6 +16881,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -15384,6 +16934,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -15432,6 +16987,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -15480,6 +17040,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -15528,6 +17093,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -15576,6 +17146,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -15624,6 +17199,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -15672,6 +17252,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -15720,6 +17305,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -15768,6 +17358,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -15816,6 +17411,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -15864,6 +17464,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -15912,6 +17517,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -15960,6 +17570,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -16008,6 +17623,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -16056,6 +17676,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -16104,6 +17729,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -16152,6 +17782,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -16200,6 +17835,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -16248,6 +17888,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -16296,6 +17941,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -16344,6 +17994,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -16392,6 +18047,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -16440,6 +18100,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -16488,6 +18153,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -16516,12 +18186,12 @@
         <v>69.652415</v>
       </c>
       <c r="H335" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Бозшаколь - Ахангаран: 14, , 0 дн.;</t>
+          <t>Бозшаколь - Ахангаран: 2, , 0 дн.;</t>
         </is>
       </c>
       <c r="K335" t="n">
@@ -16538,6 +18208,11 @@
       <c r="N335" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -16588,6 +18263,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -16636,6 +18316,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -16684,6 +18369,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -16732,6 +18422,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -16780,6 +18475,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -16828,6 +18528,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -16876,6 +18581,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -16924,6 +18634,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -16972,6 +18687,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -17020,6 +18740,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -17068,6 +18793,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -17116,6 +18846,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -17164,6 +18899,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -17212,6 +18952,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -17260,6 +19005,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -17308,6 +19058,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -17356,6 +19111,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -17404,6 +19164,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -17452,6 +19217,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -17500,6 +19270,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -17548,6 +19323,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -17596,6 +19376,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -17644,6 +19429,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -17692,6 +19482,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -17740,6 +19535,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -17788,6 +19588,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -17836,6 +19641,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -17884,6 +19694,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -17932,6 +19747,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -17980,6 +19800,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -18028,6 +19853,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -18076,6 +19906,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -18124,6 +19959,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -18172,6 +20012,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -18218,6 +20063,11 @@
       <c r="N370" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
